--- a/frontend/excel/score/badminton1.xlsx
+++ b/frontend/excel/score/badminton1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\frontend\Excel.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\frontend\excel\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A4E3B5-8081-444E-99FC-1C79D9C8D0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485F7C3-8E55-4964-BC45-58D3101227CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F2802D8D-390D-4525-909C-B8B5158C3A94}"/>
   </bookViews>
@@ -245,10 +245,10 @@
     <t>Nguyễn Lương Vững</t>
   </si>
   <si>
+    <t>UET</t>
+  </si>
+  <si>
     <t>mssv</t>
-  </si>
-  <si>
-    <t>UET</t>
   </si>
   <si>
     <t>fullname</t>
@@ -267,17 +267,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -298,7 +289,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -310,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,74 +323,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,24 +672,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911576C-7633-41EB-989F-385CA1515F74}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>69</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>71</v>
@@ -760,15 +698,15 @@
       <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>20020058</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -777,15 +715,15 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>20020061</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -794,15 +732,15 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>20020071</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -811,15 +749,15 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20020096</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -828,15 +766,15 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>20020110</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -845,15 +783,15 @@
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>20020116</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -862,15 +800,15 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="D7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>20020192</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -879,15 +817,15 @@
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20020193</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -896,15 +834,15 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>20020194</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -913,15 +851,15 @@
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>20020211</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -930,15 +868,15 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>20020235</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -947,15 +885,15 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>20020335</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -964,15 +902,15 @@
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>20020357</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -981,15 +919,15 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>20020359</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -998,15 +936,15 @@
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>20020360</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1015,15 +953,15 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>20020363</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1032,15 +970,15 @@
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>20020367</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1049,15 +987,15 @@
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>20020371</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1066,15 +1004,15 @@
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>20020373</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1083,15 +1021,15 @@
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20020375</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1100,15 +1038,15 @@
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20020377</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1117,15 +1055,15 @@
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>20020379</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1134,15 +1072,15 @@
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>20020381</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1151,15 +1089,15 @@
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>20020385</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1168,15 +1106,15 @@
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>20020387</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1185,15 +1123,15 @@
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>20020389</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1202,15 +1140,15 @@
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>20020391</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1219,15 +1157,15 @@
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>20020393</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1236,15 +1174,15 @@
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>20020397</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1253,15 +1191,15 @@
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>20020403</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1270,15 +1208,15 @@
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>20020405</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1287,15 +1225,15 @@
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>20020407</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1304,15 +1242,15 @@
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>20020409</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1321,15 +1259,15 @@
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>20020413</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1338,15 +1276,15 @@
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="D35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>20020415</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1355,15 +1293,15 @@
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>20020417</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1372,15 +1310,15 @@
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="D37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>20020421</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1389,15 +1327,15 @@
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>20020423</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1406,15 +1344,15 @@
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="D39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>20020425</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1423,15 +1361,15 @@
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="D40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>20020427</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1440,15 +1378,15 @@
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="D41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>20020430</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1457,15 +1395,15 @@
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="D42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>20020431</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1474,15 +1412,15 @@
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="D43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>20020433</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1491,15 +1429,15 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>20020435</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1508,15 +1446,15 @@
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="D45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>20020439</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1525,15 +1463,15 @@
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="D46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>20020441</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1542,15 +1480,15 @@
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="D47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>20020443</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1559,15 +1497,15 @@
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="D48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>20020445</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1576,15 +1514,15 @@
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="D49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>20020447</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1593,15 +1531,15 @@
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="D50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>20020451</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1610,15 +1548,15 @@
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="D51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>20020455</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1627,15 +1565,15 @@
       <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+      <c r="D52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>20020459</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1644,15 +1582,15 @@
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>20020461</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1661,15 +1599,15 @@
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+      <c r="D54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>20020467</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1678,15 +1616,15 @@
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+      <c r="D55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>20020469</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1695,15 +1633,15 @@
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>20020473</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1712,15 +1650,15 @@
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
+      <c r="D57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>20020479</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1729,15 +1667,15 @@
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
+      <c r="D58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>20020481</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1746,15 +1684,15 @@
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>20020483</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1763,15 +1701,15 @@
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+      <c r="D60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>20020485</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1780,15 +1718,15 @@
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
+      <c r="D61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>20020486</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1797,15 +1735,15 @@
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
+      <c r="D62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>20020487</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1814,15 +1752,15 @@
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>20020491</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1831,15 +1769,15 @@
       <c r="C64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
+      <c r="D64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>20020493</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1848,15 +1786,15 @@
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
+      <c r="D65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>20020497</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1865,15 +1803,15 @@
       <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
+      <c r="D66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>20020501</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1882,15 +1820,15 @@
       <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
+      <c r="D67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>20020503</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1899,15 +1837,15 @@
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
+      <c r="D68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>20020505</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1916,15 +1854,15 @@
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
+      <c r="D69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>20020507</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1933,429 +1871,12 @@
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E167"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E168"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E169"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E170"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E191"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E192"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E194"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E195"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E196"/>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E197"/>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E209" s="9"/>
+      <c r="D70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="3">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
